--- a/Biên bản họp và làm việc nhóm/BIên bản họp và làm việc nhóm.xlsx
+++ b/Biên bản họp và làm việc nhóm/BIên bản họp và làm việc nhóm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\bienbanhopvalamviecnhom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\Biên bản họp và làm việc nhóm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A03FE5-D1DE-4D36-8C95-5C8087241BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE1B3D9-DB07-4859-A5D8-E66D8DB6F4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="14032023" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,25 @@
     <sheet name="14042023" sheetId="5" r:id="rId5"/>
     <sheet name="21042023" sheetId="6" r:id="rId6"/>
     <sheet name="05052023" sheetId="7" r:id="rId7"/>
+    <sheet name="19052023" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="99">
   <si>
     <t>Biên bản họp, làm việc nhóm
 Nhóm: 6
@@ -354,6 +366,23 @@
   </si>
   <si>
     <t>Làm trang SẢN PHẨM:     Header, body (Hiệp, Ích Sơn, Ngọc Sơn)                         Footer(Tâm, Thương)</t>
+  </si>
+  <si>
+    <t>Kiểm tra, bổ sung, chỉnh sửa nhiệm vụ của tuần trước</t>
+  </si>
+  <si>
+    <t>13p</t>
+  </si>
+  <si>
+    <t>Biên bản họp, làm việc nhóm
+Nhóm: 6
+Thời gian – time: &lt;khung giờ 22h:00 – 23h:15&gt;&lt;ngày 19/05/23&gt;
+Địa điểm – location: online
+Người chủ trì cuộc họp – chair meeting: Nguyễn Ích Sơn 
+Thành viên tham dự - Participants:</t>
+  </si>
+  <si>
+    <t>Trang SẢN PHẨM:                                            Đầu đến phần đầu mô tả: Ích Sơn           Phần mô tả: Ngọc Sơn                          Phần sản phẩm tương tự: Hiệp                   Trang DỰ ÁN:                                                   Chỉnh sửa lại cho đẹp: Ngọc Sơn             Ghép ảnh:  Thương                                          Viết Báo cáo, biên bản, nhận xét: Tâm</t>
   </si>
 </sst>
 </file>
@@ -372,26 +401,31 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -593,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -616,6 +650,100 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -627,184 +755,107 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,7 +1078,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1039,32 +1090,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1082,7 +1133,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1096,7 +1147,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1110,7 +1161,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1124,7 +1175,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1138,141 +1189,141 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" s="35" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:6" s="17" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" s="35" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="1:6" s="17" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="9">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="21" t="s">
         <v>85</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" s="35" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" spans="1:6" s="17" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1287,30 +1338,30 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" s="35" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="20" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="41"/>
+    </row>
+    <row r="19" spans="1:6" s="17" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1405,16 +1456,16 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="41"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
         <v>41</v>
@@ -1430,7 +1481,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1438,7 +1489,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
   </sheetData>
@@ -1480,32 +1531,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6" s="15" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1523,7 +1574,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1537,7 +1588,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1551,7 +1602,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1565,7 +1616,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1579,175 +1630,175 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" s="35" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:6" s="17" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="27"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" s="38" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="20" t="s">
+    <row r="15" spans="1:6" s="20" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="35" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>1</v>
-      </c>
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:6" s="17" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" s="35" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" spans="1:6" s="17" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1762,30 +1813,30 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" s="35" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="20" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" spans="1:6" s="17" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1880,16 +1931,16 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="41"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
         <v>41</v>
@@ -1905,7 +1956,7 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1913,7 +1964,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
   </sheetData>
@@ -1957,32 +2008,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" s="38" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+    </row>
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2057,38 +2108,38 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" s="35" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" spans="1:6" s="17" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2097,54 +2148,54 @@
       <c r="D10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2152,45 +2203,45 @@
       <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" s="35" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="1:6" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2205,30 +2256,30 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" s="35" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="20" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+    </row>
+    <row r="19" spans="1:6" s="17" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2323,14 +2374,14 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -2398,32 +2449,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2441,7 +2492,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2455,7 +2506,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2469,7 +2520,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2483,7 +2534,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2497,159 +2548,159 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6" ht="94.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="9">
         <v>33</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="20" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>1</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" s="35" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="41"/>
+    </row>
+    <row r="17" spans="1:6" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2664,30 +2715,30 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" s="38" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="20" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" spans="1:6" s="20" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2782,16 +2833,16 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="41"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
         <v>41</v>
@@ -2807,7 +2858,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -2815,13 +2866,13 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
   </sheetData>
@@ -2850,7 +2901,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -2863,37 +2914,37 @@
     <col min="6" max="6" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="38" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" s="20" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="34"/>
-    </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:6" s="15" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2907,7 +2958,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2921,7 +2972,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2935,7 +2986,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2949,7 +3000,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2963,177 +3014,177 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>1</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -3148,30 +3199,30 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3266,16 +3317,16 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="41"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
         <v>41</v>
@@ -3291,7 +3342,7 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3299,7 +3350,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
   </sheetData>
@@ -3329,7 +3380,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -3343,32 +3394,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" s="29" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3443,138 +3494,138 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:7" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="20" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>1</v>
-      </c>
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="37"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -3607,132 +3658,132 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <v>1</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="19">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19">
-        <v>1</v>
-      </c>
-      <c r="E21" s="19">
-        <v>1</v>
-      </c>
-      <c r="F21" s="37"/>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="9">
         <v>2</v>
       </c>
-      <c r="D22" s="19">
-        <v>1</v>
-      </c>
-      <c r="E22" s="19">
-        <v>1</v>
-      </c>
-      <c r="F22" s="37"/>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="19">
-        <v>1</v>
-      </c>
-      <c r="D23" s="19">
-        <v>1</v>
-      </c>
-      <c r="E23" s="19">
-        <v>1</v>
-      </c>
-      <c r="F23" s="37"/>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="19">
-        <v>1</v>
-      </c>
-      <c r="D24" s="19">
-        <v>1</v>
-      </c>
-      <c r="E24" s="19">
-        <v>1</v>
-      </c>
-      <c r="F24" s="37"/>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
+      <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="19">
-        <v>1</v>
-      </c>
-      <c r="D25" s="19">
-        <v>1</v>
-      </c>
-      <c r="E25" s="19">
-        <v>1</v>
-      </c>
-      <c r="F25" s="37"/>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -3765,13 +3816,13 @@
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A16:F16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3784,8 +3835,8 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3797,416 +3848,416 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="102.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-    </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="62" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:6" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
-        <v>1</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="48" t="s">
+      <c r="A9" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64">
-        <v>1</v>
-      </c>
-      <c r="B10" s="65" t="s">
+      <c r="A10" s="33">
+        <v>1</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="67"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64">
+      <c r="A11" s="33">
         <v>2</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="67"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64">
+      <c r="A12" s="33">
         <v>3</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="69"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="51"/>
-    </row>
-    <row r="14" spans="1:6" s="35" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="63" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" s="17" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="63" t="s">
+      <c r="D14" s="75"/>
+      <c r="E14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64">
-        <v>1</v>
-      </c>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="33">
+        <v>1</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="49"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-    </row>
-    <row r="17" spans="1:6" s="35" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="63" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+    </row>
+    <row r="17" spans="1:6" s="17" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
-        <v>1</v>
-      </c>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="22">
+        <v>1</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
-    </row>
-    <row r="20" spans="1:6" s="35" customFormat="1" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="63" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+    </row>
+    <row r="20" spans="1:6" s="17" customFormat="1" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45">
-        <v>1</v>
-      </c>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="22">
+        <v>1</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="24">
         <v>2</v>
       </c>
-      <c r="D21" s="47">
-        <v>1</v>
-      </c>
-      <c r="E21" s="47">
-        <v>1</v>
-      </c>
-      <c r="F21" s="49"/>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="24">
+        <v>1</v>
+      </c>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45">
+      <c r="A22" s="22">
         <v>2</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="47">
-        <v>1</v>
-      </c>
-      <c r="D22" s="47">
-        <v>1</v>
-      </c>
-      <c r="E22" s="47">
-        <v>1</v>
-      </c>
-      <c r="F22" s="49"/>
+      <c r="C22" s="24">
+        <v>1</v>
+      </c>
+      <c r="D22" s="24">
+        <v>1</v>
+      </c>
+      <c r="E22" s="24">
+        <v>1</v>
+      </c>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45">
+      <c r="A23" s="22">
         <v>3</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="24">
         <v>2</v>
       </c>
-      <c r="D23" s="47">
-        <v>1</v>
-      </c>
-      <c r="E23" s="47">
-        <v>1</v>
-      </c>
-      <c r="F23" s="49"/>
+      <c r="D23" s="24">
+        <v>1</v>
+      </c>
+      <c r="E23" s="24">
+        <v>1</v>
+      </c>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45">
+      <c r="A24" s="22">
         <v>4</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="47">
-        <v>1</v>
-      </c>
-      <c r="D24" s="47">
-        <v>1</v>
-      </c>
-      <c r="E24" s="47">
-        <v>1</v>
-      </c>
-      <c r="F24" s="49"/>
+      <c r="C24" s="24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45">
+      <c r="A25" s="22">
         <v>5</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="47">
-        <v>1</v>
-      </c>
-      <c r="D25" s="47">
-        <v>1</v>
-      </c>
-      <c r="E25" s="47">
-        <v>1</v>
-      </c>
-      <c r="F25" s="49"/>
+      <c r="C25" s="24">
+        <v>1</v>
+      </c>
+      <c r="D25" s="24">
+        <v>1</v>
+      </c>
+      <c r="E25" s="24">
+        <v>1</v>
+      </c>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="49"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -4233,4 +4284,443 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE290F5B-49F3-422C-8872-1A4DA6B13E0B}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="112.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="75"/>
+    </row>
+    <row r="2" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
+    </row>
+    <row r="9" spans="1:6" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="75"/>
+    </row>
+    <row r="10" spans="1:6" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>1</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+    </row>
+    <row r="11" spans="1:6" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>2</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+    </row>
+    <row r="12" spans="1:6" ht="133.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>3</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="72"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="75"/>
+      <c r="E14" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>1</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+    </row>
+    <row r="17" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22">
+        <v>1</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+    </row>
+    <row r="20" spans="1:6" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
+        <v>1</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="24">
+        <v>2</v>
+      </c>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1</v>
+      </c>
+      <c r="D22" s="24">
+        <v>1</v>
+      </c>
+      <c r="E22" s="24">
+        <v>2</v>
+      </c>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22">
+        <v>3</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="24">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24">
+        <v>1</v>
+      </c>
+      <c r="E23" s="24">
+        <v>2</v>
+      </c>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>4</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>5</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="24">
+        <v>1</v>
+      </c>
+      <c r="D25" s="24">
+        <v>1</v>
+      </c>
+      <c r="E25" s="24">
+        <v>1</v>
+      </c>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Biên bản họp và làm việc nhóm/BIên bản họp và làm việc nhóm.xlsx
+++ b/Biên bản họp và làm việc nhóm/BIên bản họp và làm việc nhóm.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\Biên bản họp và làm việc nhóm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TTCSN\nhom-6-K16_TTCSN002_Chieu\Biên bản họp và làm việc nhóm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE1B3D9-DB07-4859-A5D8-E66D8DB6F4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="14032023" sheetId="1" r:id="rId1"/>
@@ -21,8 +20,9 @@
     <sheet name="21042023" sheetId="6" r:id="rId6"/>
     <sheet name="05052023" sheetId="7" r:id="rId7"/>
     <sheet name="19052023" sheetId="8" r:id="rId8"/>
+    <sheet name="26052023" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="105">
   <si>
     <t>Biên bản họp, làm việc nhóm
 Nhóm: 6
@@ -384,12 +384,36 @@
   <si>
     <t>Trang SẢN PHẨM:                                            Đầu đến phần đầu mô tả: Ích Sơn           Phần mô tả: Ngọc Sơn                          Phần sản phẩm tương tự: Hiệp                   Trang DỰ ÁN:                                                   Chỉnh sửa lại cho đẹp: Ngọc Sơn             Ghép ảnh:  Thương                                          Viết Báo cáo, biên bản, nhận xét: Tâm</t>
   </si>
+  <si>
+    <t>Xem tiến độ làm việc tuần trước</t>
+  </si>
+  <si>
+    <t>Thảo luận về việc hoàn thành các mục trong tuần tới</t>
+  </si>
+  <si>
+    <t>9p</t>
+  </si>
+  <si>
+    <t>Các thành viên tiếp tục hoàn thành code và báo cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Biên bản họp, làm việc nhóm
+Nhóm: 6
+Thời gian – time: &lt;khung giờ 23h:00 – 00h:&gt;&lt;ngày 26/05/23&gt;
+Địa điểm – location: online
+Người chủ trì cuộc họp – chair meeting: Phạm Huyền Thương 
+Thành viên tham dự - Participants:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -455,8 +479,14 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,8 +505,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -623,11 +659,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -744,6 +795,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -856,6 +931,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1090,14 +1189,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -1190,14 +1289,14 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" s="17" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -1212,10 +1311,10 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -1230,10 +1329,10 @@
       <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -1248,19 +1347,19 @@
       <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="41"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1270,10 +1369,10 @@
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="10" t="s">
         <v>27</v>
       </c>
@@ -1288,24 +1387,24 @@
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="21" t="s">
         <v>85</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="41"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1338,14 +1437,14 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="41"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -1456,14 +1555,14 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="41"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="49"/>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -1511,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1531,14 +1630,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -1631,14 +1730,14 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" s="17" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -1653,10 +1752,10 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -1671,10 +1770,10 @@
       <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -1689,10 +1788,10 @@
       <c r="D11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -1707,10 +1806,10 @@
       <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -1725,17 +1824,17 @@
       <c r="D13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" s="20" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1745,10 +1844,10 @@
       <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="10" t="s">
         <v>27</v>
       </c>
@@ -1763,24 +1862,24 @@
       <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="41"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -1813,14 +1912,14 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="41"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
@@ -1931,14 +2030,14 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="41"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="49"/>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -1988,7 +2087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2008,14 +2107,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" s="20" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2108,14 +2207,14 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" spans="1:6" s="17" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -2130,10 +2229,10 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="63"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2148,10 +2247,10 @@
       <c r="D10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2166,19 +2265,19 @@
       <c r="D11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="51"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,10 +2287,10 @@
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="10" t="s">
         <v>27</v>
       </c>
@@ -2206,24 +2305,24 @@
       <c r="B14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -2256,14 +2355,14 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -2374,14 +2473,14 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -2430,7 +2529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2449,14 +2548,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2549,14 +2648,14 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -2571,10 +2670,10 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="50"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -2589,10 +2688,10 @@
       <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="1:6" ht="94.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -2607,10 +2706,10 @@
       <c r="D11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -2625,19 +2724,19 @@
       <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="50"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="41"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2647,10 +2746,10 @@
       <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="10" t="s">
         <v>27</v>
       </c>
@@ -2665,24 +2764,24 @@
       <c r="B15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="46"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="41"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -2715,14 +2814,14 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="41"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6" s="20" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -2833,14 +2932,14 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="41"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="49"/>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -2895,7 +2994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2915,14 +3014,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="20" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -3015,14 +3114,14 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -3037,10 +3136,10 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="50"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -3055,10 +3154,10 @@
       <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -3073,10 +3172,10 @@
       <c r="D11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -3091,10 +3190,10 @@
       <c r="D12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="50"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -3109,19 +3208,19 @@
       <c r="D13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="50"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -3131,10 +3230,10 @@
       <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="10" t="s">
         <v>27</v>
       </c>
@@ -3149,24 +3248,24 @@
       <c r="B16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="41"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -3199,14 +3298,14 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="41"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
@@ -3317,14 +3416,14 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="41"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="49"/>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -3374,7 +3473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3394,14 +3493,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:7" s="15" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -3494,14 +3593,14 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -3516,10 +3615,10 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -3534,10 +3633,10 @@
       <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3553,10 +3652,10 @@
       <c r="D11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="61"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -3572,19 +3671,19 @@
       <c r="D12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="50"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3594,10 +3693,10 @@
       <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="46"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="10" t="s">
         <v>27</v>
       </c>
@@ -3612,20 +3711,20 @@
       <c r="B15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="9"/>
       <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -3658,14 +3757,14 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -3776,14 +3875,14 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -3829,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3848,14 +3947,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="102.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
@@ -3948,14 +4047,14 @@
       <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
@@ -3970,10 +4069,10 @@
       <c r="D9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
@@ -3988,10 +4087,10 @@
       <c r="D10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
@@ -4006,8 +4105,8 @@
       <c r="D11" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
     </row>
     <row r="12" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
@@ -4022,19 +4121,19 @@
       <c r="D12" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="80"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4044,10 +4143,10 @@
       <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="32" t="s">
         <v>27</v>
       </c>
@@ -4062,20 +4161,20 @@
       <c r="B15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
@@ -4108,14 +4207,14 @@
       <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
@@ -4226,14 +4325,14 @@
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
@@ -4287,11 +4386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE290F5B-49F3-422C-8872-1A4DA6B13E0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B28" sqref="A1:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4305,14 +4404,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="112.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
@@ -4405,14 +4504,14 @@
       <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="1:6" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
@@ -4427,10 +4526,10 @@
       <c r="D9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="75"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="10" spans="1:6" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
@@ -4445,8 +4544,8 @@
       <c r="D10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
@@ -4461,8 +4560,8 @@
       <c r="D11" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
     </row>
     <row r="12" spans="1:6" ht="133.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
@@ -4477,19 +4576,19 @@
       <c r="D12" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="80"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -4499,10 +4598,10 @@
       <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="32" t="s">
         <v>27</v>
       </c>
@@ -4517,20 +4616,20 @@
       <c r="B15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
     </row>
     <row r="17" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
@@ -4563,14 +4662,14 @@
       <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
     </row>
     <row r="20" spans="1:6" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
@@ -4681,14 +4780,14 @@
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
@@ -4722,5 +4821,449 @@
     <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="91"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
+    </row>
+    <row r="9" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="91"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="44">
+        <v>1</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="93"/>
+    </row>
+    <row r="11" spans="1:6" ht="103.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="44">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="93"/>
+    </row>
+    <row r="12" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44">
+        <v>3</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="93"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="93"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+    </row>
+    <row r="17" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="47"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44">
+        <v>1</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+    </row>
+    <row r="20" spans="1:6" ht="60.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44">
+        <v>1</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="41">
+        <v>1</v>
+      </c>
+      <c r="D21" s="41">
+        <v>1</v>
+      </c>
+      <c r="E21" s="41">
+        <v>1</v>
+      </c>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44">
+        <v>2</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="41">
+        <v>1</v>
+      </c>
+      <c r="D22" s="41">
+        <v>1</v>
+      </c>
+      <c r="E22" s="41">
+        <v>1</v>
+      </c>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44">
+        <v>3</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="41">
+        <v>1</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1</v>
+      </c>
+      <c r="E23" s="41">
+        <v>1</v>
+      </c>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44">
+        <v>4</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="41">
+        <v>1</v>
+      </c>
+      <c r="D24" s="41">
+        <v>1</v>
+      </c>
+      <c r="E24" s="41">
+        <v>1</v>
+      </c>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44">
+        <v>5</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="41">
+        <v>1</v>
+      </c>
+      <c r="D25" s="41">
+        <v>1</v>
+      </c>
+      <c r="E25" s="41">
+        <v>1</v>
+      </c>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Biên bản họp và làm việc nhóm/BIên bản họp và làm việc nhóm.xlsx
+++ b/Biên bản họp và làm việc nhóm/BIên bản họp và làm việc nhóm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="14032023" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="05052023" sheetId="7" r:id="rId7"/>
     <sheet name="19052023" sheetId="8" r:id="rId8"/>
     <sheet name="26052023" sheetId="9" r:id="rId9"/>
+    <sheet name="02062023" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="112">
   <si>
     <t>Biên bản họp, làm việc nhóm
 Nhóm: 6
@@ -407,6 +408,32 @@
 Địa điểm – location: online
 Người chủ trì cuộc họp – chair meeting: Phạm Huyền Thương 
 Thành viên tham dự - Participants:</t>
+  </si>
+  <si>
+    <t>Biên bản họp, làm việc nhóm
+Nhóm: 6
+Thời gian – time: &lt;khung giờ 22h35 – 23h15&gt;&lt;ngày 02/06/23&gt;
+Địa điểm – location: online
+Người chủ trì cuộc họp – chair meeting: Bùi Ngọc Sơn 
+Thành viên tham dự - Participants:</t>
+  </si>
+  <si>
+    <t>Kiểm tra, bổ sung, chỉnh sửa code</t>
+  </si>
+  <si>
+    <t>Hiệp</t>
+  </si>
+  <si>
+    <t>15p</t>
+  </si>
+  <si>
+    <t>Thảo luận để hiểu rõ hơn các phần code</t>
+  </si>
+  <si>
+    <t>Làm báo cáo</t>
+  </si>
+  <si>
+    <t>Không có trong video</t>
   </si>
 </sst>
 </file>
@@ -678,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -944,6 +971,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -953,8 +983,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,6 +1648,445 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
+    </row>
+    <row r="2" spans="1:6" ht="60.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="89"/>
+    </row>
+    <row r="9" spans="1:6" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="92"/>
+    </row>
+    <row r="10" spans="1:6" ht="90.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40">
+        <v>1</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+    </row>
+    <row r="11" spans="1:6" ht="90.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40">
+        <v>2</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40">
+        <v>3</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="94"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="92"/>
+      <c r="E14" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>1</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+    </row>
+    <row r="17" spans="1:6" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="47"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40">
+        <v>1</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+    </row>
+    <row r="20" spans="1:6" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="96"/>
+      <c r="B20" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
+        <v>1</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="41">
+        <v>1</v>
+      </c>
+      <c r="D21" s="41">
+        <v>1</v>
+      </c>
+      <c r="E21" s="41">
+        <v>2</v>
+      </c>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="40">
+        <v>2</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="41">
+        <v>1</v>
+      </c>
+      <c r="D22" s="41">
+        <v>1</v>
+      </c>
+      <c r="E22" s="41">
+        <v>1</v>
+      </c>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40">
+        <v>3</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="41">
+        <v>1</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1</v>
+      </c>
+      <c r="E23" s="41">
+        <v>2</v>
+      </c>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="40">
+        <v>4</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="41">
+        <v>1</v>
+      </c>
+      <c r="D24" s="41">
+        <v>1</v>
+      </c>
+      <c r="E24" s="41">
+        <v>1</v>
+      </c>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40">
+        <v>5</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="41">
+        <v>1</v>
+      </c>
+      <c r="D25" s="41">
+        <v>1</v>
+      </c>
+      <c r="E25" s="41">
+        <v>1</v>
+      </c>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -4389,8 +4867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B28" sqref="A1:F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4829,7 +5307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -4846,11 +5324,11 @@
       <c r="A1" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
     </row>
     <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -4968,7 +5446,7 @@
       <c r="E9" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="91"/>
+      <c r="F9" s="92"/>
     </row>
     <row r="10" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
@@ -4983,10 +5461,10 @@
       <c r="D10" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="93"/>
+      <c r="F10" s="94"/>
     </row>
     <row r="11" spans="1:6" ht="103.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
@@ -5001,10 +5479,10 @@
       <c r="D11" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="93"/>
+      <c r="F11" s="94"/>
     </row>
     <row r="12" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
@@ -5019,10 +5497,10 @@
       <c r="D12" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="93"/>
+      <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="87" t="s">
@@ -5044,7 +5522,7 @@
       <c r="C14" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="42" t="s">
         <v>27</v>
       </c>
@@ -5057,10 +5535,10 @@
       <c r="B15" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="37"/>
       <c r="F15" s="26"/>
     </row>

--- a/Biên bản họp và làm việc nhóm/BIên bản họp và làm việc nhóm.xlsx
+++ b/Biên bản họp và làm việc nhóm/BIên bản họp và làm việc nhóm.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TTCSN\nhom-6-K16_TTCSN002_Chieu\Biên bản họp và làm việc nhóm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh Tam\Desktop\Thanh Tam\Nam 2\TTCSN\nhom-6-K16_TTCSN002_Chieu\Biên bản họp và làm việc nhóm\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB38683-9B6D-47CC-AF89-464F3946AA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="14032023" sheetId="1" r:id="rId1"/>
@@ -24,17 +25,6 @@
     <sheet name="02062023" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -439,7 +429,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -846,6 +836,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -909,6 +905,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -917,18 +922,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -941,15 +946,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -981,12 +977,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1209,7 +1199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1228,14 +1218,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -1328,14 +1318,14 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="49"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:6" s="17" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -1350,10 +1340,10 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -1368,10 +1358,10 @@
       <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -1386,19 +1376,19 @@
       <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1408,10 +1398,10 @@
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="10" t="s">
         <v>27</v>
       </c>
@@ -1426,24 +1416,24 @@
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="21" t="s">
         <v>85</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1476,14 +1466,14 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="51"/>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -1594,14 +1584,14 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="49"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="51"/>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -1649,11 +1639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1662,20 +1652,20 @@
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
-    </row>
-    <row r="2" spans="1:6" ht="60.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
@@ -1695,7 +1685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40">
         <v>1</v>
       </c>
@@ -1709,7 +1699,7 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
     </row>
-    <row r="4" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40">
         <v>2</v>
       </c>
@@ -1718,12 +1708,12 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="48" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -1737,7 +1727,7 @@
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -1751,7 +1741,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40">
         <v>5</v>
       </c>
@@ -1766,16 +1756,16 @@
       <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
-    </row>
-    <row r="9" spans="1:6" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
+    </row>
+    <row r="9" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>1</v>
       </c>
@@ -1788,12 +1778,12 @@
       <c r="D9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="92"/>
-    </row>
-    <row r="10" spans="1:6" ht="90.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="94"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <v>1</v>
       </c>
@@ -1809,7 +1799,7 @@
       <c r="E10" s="97"/>
       <c r="F10" s="98"/>
     </row>
-    <row r="11" spans="1:6" ht="90.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>2</v>
       </c>
@@ -1825,7 +1815,7 @@
       <c r="E11" s="97"/>
       <c r="F11" s="98"/>
     </row>
-    <row r="12" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>3</v>
       </c>
@@ -1838,19 +1828,19 @@
       <c r="D12" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="94"/>
+      <c r="F12" s="96"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
       <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1860,10 +1850,10 @@
       <c r="B14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="42" t="s">
         <v>27</v>
       </c>
@@ -1884,16 +1874,16 @@
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-    </row>
-    <row r="17" spans="1:6" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
+    </row>
+    <row r="17" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>1</v>
       </c>
@@ -1924,17 +1914,17 @@
       <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
     </row>
     <row r="20" spans="1:6" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="42" t="s">
         <v>36</v>
       </c>
@@ -1951,7 +1941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>1</v>
       </c>
@@ -1969,7 +1959,7 @@
       </c>
       <c r="F21" s="26"/>
     </row>
-    <row r="22" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>2</v>
       </c>
@@ -1987,7 +1977,7 @@
       </c>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>3</v>
       </c>
@@ -2005,7 +1995,7 @@
       </c>
       <c r="F23" s="26"/>
     </row>
-    <row r="24" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>4</v>
       </c>
@@ -2023,7 +2013,7 @@
       </c>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>5</v>
       </c>
@@ -2042,16 +2032,16 @@
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-    </row>
-    <row r="27" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="91"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
       <c r="B27" s="42" t="s">
         <v>41</v>
@@ -2069,11 +2059,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
@@ -2081,6 +2066,11 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2088,7 +2078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2108,14 +2098,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2208,14 +2198,14 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="49"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:6" s="17" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -2230,10 +2220,10 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -2248,10 +2238,10 @@
       <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -2266,10 +2256,10 @@
       <c r="D11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -2284,10 +2274,10 @@
       <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -2302,17 +2292,17 @@
       <c r="D13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" s="20" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2322,10 +2312,10 @@
       <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="10" t="s">
         <v>27</v>
       </c>
@@ -2340,24 +2330,24 @@
       <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="54"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="51"/>
     </row>
     <row r="18" spans="1:6" s="17" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -2390,14 +2380,14 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:6" s="17" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
@@ -2508,14 +2498,14 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="49"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="51"/>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -2565,7 +2555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2585,14 +2575,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:6" s="20" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2685,14 +2675,14 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:6" s="17" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -2707,10 +2697,10 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2725,10 +2715,10 @@
       <c r="D10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="64"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2743,19 +2733,19 @@
       <c r="D11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="61"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -2765,10 +2755,10 @@
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="10" t="s">
         <v>27</v>
       </c>
@@ -2783,24 +2773,24 @@
       <c r="B14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="59"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -2833,14 +2823,14 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" spans="1:6" s="17" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -2951,14 +2941,14 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -3007,7 +2997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3026,14 +3016,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" s="14" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -3126,14 +3116,14 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="49"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -3148,10 +3138,10 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -3166,10 +3156,10 @@
       <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="60"/>
     </row>
     <row r="11" spans="1:6" ht="94.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -3184,10 +3174,10 @@
       <c r="D11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -3202,19 +3192,19 @@
       <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="49"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3224,10 +3214,10 @@
       <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="10" t="s">
         <v>27</v>
       </c>
@@ -3242,24 +3232,24 @@
       <c r="B15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -3292,14 +3282,14 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="51"/>
     </row>
     <row r="20" spans="1:6" s="20" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -3410,14 +3400,14 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="49"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="51"/>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -3454,6 +3444,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:F26"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A1:F1"/>
@@ -3461,18 +3456,13 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3492,14 +3482,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="20" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -3592,14 +3582,14 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="49"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -3614,10 +3604,10 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -3632,10 +3622,10 @@
       <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="60"/>
     </row>
     <row r="11" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -3650,10 +3640,10 @@
       <c r="D11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -3668,10 +3658,10 @@
       <c r="D12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
@@ -3686,19 +3676,19 @@
       <c r="D13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="60"/>
     </row>
     <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -3708,10 +3698,10 @@
       <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="10" t="s">
         <v>27</v>
       </c>
@@ -3726,24 +3716,24 @@
       <c r="B16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="66"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="51"/>
     </row>
     <row r="18" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -3776,14 +3766,14 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="51"/>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
@@ -3894,14 +3884,14 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="49"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="51"/>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -3951,7 +3941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3971,14 +3961,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:7" s="15" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -4071,14 +4061,14 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="49"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="51"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -4093,10 +4083,10 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -4111,10 +4101,10 @@
       <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4130,10 +4120,10 @@
       <c r="D11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -4149,19 +4139,19 @@
       <c r="D12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4171,10 +4161,10 @@
       <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="10" t="s">
         <v>27</v>
       </c>
@@ -4189,20 +4179,20 @@
       <c r="B15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="9"/>
       <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -4235,14 +4225,14 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="63"/>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
@@ -4353,14 +4343,14 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -4388,6 +4378,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A26:F26"/>
@@ -4395,18 +4390,13 @@
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4425,14 +4415,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="102.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
@@ -4525,14 +4515,14 @@
       <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
@@ -4547,10 +4537,10 @@
       <c r="D9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="74"/>
     </row>
     <row r="10" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
@@ -4565,10 +4555,10 @@
       <c r="D10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="78"/>
+      <c r="F10" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
@@ -4583,8 +4573,8 @@
       <c r="D11" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
@@ -4599,19 +4589,19 @@
       <c r="D12" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="80"/>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" s="17" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4621,10 +4611,10 @@
       <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="83"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="32" t="s">
         <v>27</v>
       </c>
@@ -4639,20 +4629,20 @@
       <c r="B15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
     </row>
     <row r="17" spans="1:6" s="17" customFormat="1" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
@@ -4685,14 +4675,14 @@
       <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
     </row>
     <row r="20" spans="1:6" s="17" customFormat="1" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
@@ -4803,14 +4793,14 @@
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
@@ -4846,11 +4836,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A8:F8"/>
@@ -4858,13 +4843,18 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4882,14 +4872,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="112.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="83"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
@@ -4982,14 +4972,14 @@
       <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" spans="1:6" ht="56.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
@@ -5004,10 +4994,10 @@
       <c r="D9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:6" ht="52.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
@@ -5022,8 +5012,8 @@
       <c r="D10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
     </row>
     <row r="11" spans="1:6" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
@@ -5038,8 +5028,8 @@
       <c r="D11" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="1:6" ht="133.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
@@ -5054,19 +5044,19 @@
       <c r="D12" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="80"/>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -5076,10 +5066,10 @@
       <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="83"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="32" t="s">
         <v>27</v>
       </c>
@@ -5094,20 +5084,20 @@
       <c r="B15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
     </row>
     <row r="17" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
@@ -5140,14 +5130,14 @@
       <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
     </row>
     <row r="20" spans="1:6" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
@@ -5258,14 +5248,14 @@
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
@@ -5304,7 +5294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5321,14 +5311,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
     </row>
     <row r="2" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -5421,14 +5411,14 @@
       <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="89"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
     </row>
     <row r="9" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
@@ -5443,10 +5433,10 @@
       <c r="D9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="90" t="s">
+      <c r="E9" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="92"/>
+      <c r="F9" s="94"/>
     </row>
     <row r="10" spans="1:6" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
@@ -5461,10 +5451,10 @@
       <c r="D10" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="94"/>
+      <c r="F10" s="96"/>
     </row>
     <row r="11" spans="1:6" ht="103.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
@@ -5479,10 +5469,10 @@
       <c r="D11" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="94"/>
+      <c r="F11" s="96"/>
     </row>
     <row r="12" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
@@ -5497,19 +5487,19 @@
       <c r="D12" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="94"/>
+      <c r="F12" s="96"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
       <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -5519,10 +5509,10 @@
       <c r="B14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="42" t="s">
         <v>27</v>
       </c>
@@ -5535,22 +5525,22 @@
       <c r="B15" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="94"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="37"/>
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="91"/>
     </row>
     <row r="17" spans="1:6" ht="45.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
@@ -5583,14 +5573,14 @@
       <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
     </row>
     <row r="20" spans="1:6" ht="60.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
@@ -5701,14 +5691,14 @@
       <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="91"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29"/>
